--- a/assets/public/Chapter_4_ComprehensiveProblem/documents/resources/Assessment_Questions/5.5_Student_A_Sheet.xlsx
+++ b/assets/public/Chapter_4_ComprehensiveProblem/documents/resources/Assessment_Questions/5.5_Student_A_Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SakshiV\Dropbox\Accounting Courseware\Chapter_4_ComprehensiveProblem\documents\resources\Assessment_Questions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3150B62-87C7-4E9E-BD10-9B7D05B36892}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E76D527-979F-464C-8C61-9097BDBC3407}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11640" xr2:uid="{A967B6E2-7F77-4690-A937-D71849A1AE83}"/>
   </bookViews>
@@ -163,7 +163,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -182,6 +182,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFEF1E6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="17">
     <border>
@@ -361,7 +367,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" shrinkToFit="1"/>
@@ -414,7 +420,6 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment shrinkToFit="1"/>
     </xf>
@@ -442,11 +447,8 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" shrinkToFit="1"/>
     </xf>
@@ -457,6 +459,11 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" shrinkToFit="1"/>
     </xf>
@@ -477,6 +484,7 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFEF1E6"/>
       <color rgb="FFD9D9D9"/>
       <color rgb="FFE1A16C"/>
       <color rgb="FFFDC689"/>
@@ -790,10 +798,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C80A0C24-7431-430F-9021-A877E1BD9DCC}">
-  <dimension ref="A1:G43"/>
+  <dimension ref="A1:G45"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -802,37 +810,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="33"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="31"/>
     </row>
     <row r="2" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="34" t="s">
+      <c r="A2" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="35"/>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="36"/>
+      <c r="B2" s="33"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="34"/>
     </row>
     <row r="3" spans="1:7" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="28" t="str">
+      <c r="A3" s="35" t="str">
         <f ca="1">"For the Month Ended June 30, "&amp;YEAR(TODAY())</f>
         <v>For the Month Ended June 30, 2019</v>
       </c>
-      <c r="B3" s="29"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
+      <c r="B3" s="36"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="36"/>
       <c r="G3" s="8"/>
     </row>
     <row r="4" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -844,7 +852,7 @@
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
-      <c r="G4" s="24"/>
+      <c r="G4" s="23"/>
     </row>
     <row r="5" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="17"/>
@@ -857,7 +865,7 @@
       <c r="F5" s="10">
         <v>3750</v>
       </c>
-      <c r="G5" s="25"/>
+      <c r="G5" s="24"/>
     </row>
     <row r="6" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
@@ -868,7 +876,7 @@
       <c r="D6" s="2"/>
       <c r="E6" s="3"/>
       <c r="F6" s="2"/>
-      <c r="G6" s="25"/>
+      <c r="G6" s="24"/>
     </row>
     <row r="7" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="17"/>
@@ -879,7 +887,7 @@
       <c r="D7" s="2"/>
       <c r="E7" s="3"/>
       <c r="F7" s="2"/>
-      <c r="G7" s="25"/>
+      <c r="G7" s="24"/>
     </row>
     <row r="8" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="17"/>
@@ -892,7 +900,7 @@
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="2"/>
-      <c r="G8" s="25"/>
+      <c r="G8" s="24"/>
     </row>
     <row r="9" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="17"/>
@@ -905,7 +913,7 @@
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="2"/>
-      <c r="G9" s="25"/>
+      <c r="G9" s="24"/>
     </row>
     <row r="10" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="17"/>
@@ -918,7 +926,7 @@
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="2"/>
-      <c r="G10" s="25"/>
+      <c r="G10" s="24"/>
     </row>
     <row r="11" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="17"/>
@@ -931,7 +939,7 @@
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="2"/>
-      <c r="G11" s="25"/>
+      <c r="G11" s="24"/>
     </row>
     <row r="12" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="17"/>
@@ -944,7 +952,7 @@
       <c r="F12" s="12">
         <v>1645</v>
       </c>
-      <c r="G12" s="25"/>
+      <c r="G12" s="24"/>
     </row>
     <row r="13" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="17"/>
@@ -957,58 +965,60 @@
       <c r="F13" s="13">
         <v>2105</v>
       </c>
-      <c r="G13" s="25"/>
+      <c r="G13" s="24"/>
     </row>
     <row r="14" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="19"/>
-      <c r="B14" s="20" t="s">
+      <c r="A14" s="18"/>
+      <c r="B14" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="C14" s="21"/>
-      <c r="D14" s="21"/>
-      <c r="E14" s="21"/>
-      <c r="F14" s="21"/>
-      <c r="G14" s="26"/>
+      <c r="C14" s="20"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="20"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="25"/>
     </row>
     <row r="15" spans="1:7" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="18"/>
-      <c r="B15" s="18"/>
-      <c r="D15" s="18"/>
-      <c r="E15" s="18"/>
-      <c r="F15" s="18"/>
+      <c r="A15" s="28"/>
+      <c r="B15" s="28"/>
+      <c r="C15" s="27"/>
+      <c r="D15" s="28"/>
+      <c r="E15" s="28"/>
+      <c r="F15" s="28"/>
+      <c r="G15" s="27"/>
     </row>
     <row r="16" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="31" t="s">
+      <c r="A16" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B16" s="37"/>
-      <c r="C16" s="37"/>
-      <c r="D16" s="37"/>
-      <c r="E16" s="37"/>
-      <c r="F16" s="37"/>
-      <c r="G16" s="38"/>
+      <c r="B16" s="38"/>
+      <c r="C16" s="38"/>
+      <c r="D16" s="38"/>
+      <c r="E16" s="38"/>
+      <c r="F16" s="38"/>
+      <c r="G16" s="39"/>
     </row>
     <row r="17" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="34" t="s">
+      <c r="A17" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="B17" s="39"/>
-      <c r="C17" s="39"/>
-      <c r="D17" s="39"/>
-      <c r="E17" s="39"/>
-      <c r="F17" s="39"/>
-      <c r="G17" s="40"/>
+      <c r="B17" s="40"/>
+      <c r="C17" s="40"/>
+      <c r="D17" s="40"/>
+      <c r="E17" s="40"/>
+      <c r="F17" s="40"/>
+      <c r="G17" s="41"/>
     </row>
     <row r="18" spans="1:7" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="28" t="s">
+      <c r="A18" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="B18" s="29"/>
-      <c r="C18" s="29"/>
-      <c r="D18" s="29"/>
-      <c r="E18" s="29"/>
-      <c r="F18" s="29"/>
-      <c r="G18" s="30"/>
+      <c r="B18" s="36"/>
+      <c r="C18" s="36"/>
+      <c r="D18" s="36"/>
+      <c r="E18" s="36"/>
+      <c r="F18" s="36"/>
+      <c r="G18" s="37"/>
     </row>
     <row r="19" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="16"/>
@@ -1019,7 +1029,7 @@
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
-      <c r="G19" s="24"/>
+      <c r="G19" s="23"/>
     </row>
     <row r="20" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="17"/>
@@ -1032,7 +1042,7 @@
       <c r="F20" s="10">
         <v>0</v>
       </c>
-      <c r="G20" s="25"/>
+      <c r="G20" s="24"/>
     </row>
     <row r="21" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="17"/>
@@ -1045,7 +1055,7 @@
       </c>
       <c r="E21" s="3"/>
       <c r="F21" s="2"/>
-      <c r="G21" s="25"/>
+      <c r="G21" s="24"/>
     </row>
     <row r="22" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="17"/>
@@ -1058,7 +1068,7 @@
       </c>
       <c r="E22" s="3"/>
       <c r="F22" s="2"/>
-      <c r="G22" s="25"/>
+      <c r="G22" s="24"/>
     </row>
     <row r="23" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="17"/>
@@ -1071,7 +1081,7 @@
       <c r="F23" s="12">
         <v>1405</v>
       </c>
-      <c r="G23" s="25"/>
+      <c r="G23" s="24"/>
     </row>
     <row r="24" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="17"/>
@@ -1084,55 +1094,61 @@
       <c r="F24" s="13">
         <v>1405</v>
       </c>
-      <c r="G24" s="25"/>
+      <c r="G24" s="24"/>
     </row>
     <row r="25" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="19"/>
-      <c r="B25" s="20" t="s">
+      <c r="A25" s="18"/>
+      <c r="B25" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="C25" s="21"/>
-      <c r="D25" s="21"/>
-      <c r="E25" s="21"/>
-      <c r="F25" s="21"/>
-      <c r="G25" s="26"/>
+      <c r="C25" s="20"/>
+      <c r="D25" s="20"/>
+      <c r="E25" s="20"/>
+      <c r="F25" s="20"/>
+      <c r="G25" s="25"/>
     </row>
     <row r="26" spans="1:7" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="18"/>
+      <c r="A26" s="28"/>
+      <c r="B26" s="27"/>
+      <c r="C26" s="27"/>
+      <c r="D26" s="27"/>
+      <c r="E26" s="27"/>
+      <c r="F26" s="27"/>
+      <c r="G26" s="27"/>
     </row>
     <row r="27" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="31" t="s">
+      <c r="A27" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B27" s="32"/>
-      <c r="C27" s="32"/>
-      <c r="D27" s="32"/>
-      <c r="E27" s="32"/>
-      <c r="F27" s="32"/>
-      <c r="G27" s="33"/>
+      <c r="B27" s="30"/>
+      <c r="C27" s="30"/>
+      <c r="D27" s="30"/>
+      <c r="E27" s="30"/>
+      <c r="F27" s="30"/>
+      <c r="G27" s="31"/>
     </row>
     <row r="28" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="34" t="s">
+      <c r="A28" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="B28" s="35"/>
-      <c r="C28" s="35"/>
-      <c r="D28" s="35"/>
-      <c r="E28" s="35"/>
-      <c r="F28" s="35"/>
-      <c r="G28" s="36"/>
+      <c r="B28" s="33"/>
+      <c r="C28" s="33"/>
+      <c r="D28" s="33"/>
+      <c r="E28" s="33"/>
+      <c r="F28" s="33"/>
+      <c r="G28" s="34"/>
     </row>
     <row r="29" spans="1:7" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="28" t="str">
+      <c r="A29" s="35" t="str">
         <f ca="1">"June 30, "&amp;YEAR(TODAY())</f>
         <v>June 30, 2019</v>
       </c>
-      <c r="B29" s="29"/>
-      <c r="C29" s="29"/>
-      <c r="D29" s="29"/>
-      <c r="E29" s="29"/>
-      <c r="F29" s="29"/>
-      <c r="G29" s="30"/>
+      <c r="B29" s="36"/>
+      <c r="C29" s="36"/>
+      <c r="D29" s="36"/>
+      <c r="E29" s="36"/>
+      <c r="F29" s="36"/>
+      <c r="G29" s="37"/>
     </row>
     <row r="30" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="16"/>
@@ -1143,7 +1159,7 @@
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
-      <c r="G30" s="24"/>
+      <c r="G30" s="23"/>
     </row>
     <row r="31" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="17"/>
@@ -1154,7 +1170,7 @@
       <c r="D31" s="2"/>
       <c r="E31" s="3"/>
       <c r="F31" s="2"/>
-      <c r="G31" s="25"/>
+      <c r="G31" s="24"/>
     </row>
     <row r="32" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="17"/>
@@ -1167,7 +1183,7 @@
       </c>
       <c r="E32" s="3"/>
       <c r="F32" s="2"/>
-      <c r="G32" s="25"/>
+      <c r="G32" s="24"/>
     </row>
     <row r="33" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="17"/>
@@ -1180,7 +1196,7 @@
       </c>
       <c r="E33" s="3"/>
       <c r="F33" s="4"/>
-      <c r="G33" s="25"/>
+      <c r="G33" s="24"/>
     </row>
     <row r="34" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="17"/>
@@ -1193,7 +1209,7 @@
       <c r="F34" s="13">
         <v>11435</v>
       </c>
-      <c r="G34" s="25"/>
+      <c r="G34" s="24"/>
     </row>
     <row r="35" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="17"/>
@@ -1202,7 +1218,7 @@
       <c r="D35" s="2"/>
       <c r="E35" s="3"/>
       <c r="F35" s="6"/>
-      <c r="G35" s="25"/>
+      <c r="G35" s="24"/>
     </row>
     <row r="36" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="17"/>
@@ -1213,7 +1229,7 @@
       <c r="D36" s="2"/>
       <c r="E36" s="3"/>
       <c r="F36" s="2"/>
-      <c r="G36" s="25"/>
+      <c r="G36" s="24"/>
     </row>
     <row r="37" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="17"/>
@@ -1226,7 +1242,7 @@
       </c>
       <c r="E37" s="3"/>
       <c r="F37" s="7"/>
-      <c r="G37" s="25"/>
+      <c r="G37" s="24"/>
     </row>
     <row r="38" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="17"/>
@@ -1235,7 +1251,7 @@
       <c r="D38" s="2"/>
       <c r="E38" s="3"/>
       <c r="F38" s="6"/>
-      <c r="G38" s="25"/>
+      <c r="G38" s="24"/>
     </row>
     <row r="39" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="17"/>
@@ -1246,7 +1262,7 @@
       <c r="D39" s="2"/>
       <c r="E39" s="3"/>
       <c r="F39" s="6"/>
-      <c r="G39" s="25"/>
+      <c r="G39" s="24"/>
     </row>
     <row r="40" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="17"/>
@@ -1259,7 +1275,7 @@
       </c>
       <c r="E40" s="3"/>
       <c r="F40" s="2"/>
-      <c r="G40" s="25"/>
+      <c r="G40" s="24"/>
     </row>
     <row r="41" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="17"/>
@@ -1272,7 +1288,7 @@
       </c>
       <c r="E41" s="3"/>
       <c r="F41" s="6"/>
-      <c r="G41" s="25"/>
+      <c r="G41" s="24"/>
     </row>
     <row r="42" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="17"/>
@@ -1285,16 +1301,34 @@
       <c r="F42" s="13">
         <v>11435</v>
       </c>
-      <c r="G42" s="25"/>
+      <c r="G42" s="24"/>
     </row>
     <row r="43" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="22"/>
-      <c r="B43" s="23"/>
-      <c r="C43" s="23"/>
-      <c r="D43" s="23"/>
-      <c r="E43" s="23"/>
-      <c r="F43" s="23"/>
-      <c r="G43" s="27"/>
+      <c r="A43" s="21"/>
+      <c r="B43" s="22"/>
+      <c r="C43" s="22"/>
+      <c r="D43" s="22"/>
+      <c r="E43" s="22"/>
+      <c r="F43" s="22"/>
+      <c r="G43" s="26"/>
+    </row>
+    <row r="44" spans="1:7" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="27"/>
+      <c r="B44" s="27"/>
+      <c r="C44" s="27"/>
+      <c r="D44" s="27"/>
+      <c r="E44" s="27"/>
+      <c r="F44" s="27"/>
+      <c r="G44" s="27"/>
+    </row>
+    <row r="45" spans="1:7" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="27"/>
+      <c r="B45" s="27"/>
+      <c r="C45" s="27"/>
+      <c r="D45" s="27"/>
+      <c r="E45" s="27"/>
+      <c r="F45" s="27"/>
+      <c r="G45" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="9">

--- a/assets/public/Chapter_4_ComprehensiveProblem/documents/resources/Assessment_Questions/5.5_Student_A_Sheet.xlsx
+++ b/assets/public/Chapter_4_ComprehensiveProblem/documents/resources/Assessment_Questions/5.5_Student_A_Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SakshiV\Dropbox\Accounting Courseware\Chapter_4_ComprehensiveProblem\documents\resources\Assessment_Questions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E76D527-979F-464C-8C61-9097BDBC3407}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DC15D7E-926B-4EED-9378-853B5A3CB7B8}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11640" xr2:uid="{A967B6E2-7F77-4690-A937-D71849A1AE83}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="28">
   <si>
     <t>State-to-State Consulting</t>
   </si>
@@ -124,7 +124,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -136,11 +136,6 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
       <family val="2"/>
     </font>
     <font>
@@ -158,9 +153,46 @@
     </font>
     <font>
       <b/>
-      <sz val="10"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="5">
@@ -189,92 +221,12 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="18">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFE1A16C"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color rgb="FFE1A16C"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color rgb="FFE1A16C"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FFE1A16C"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFE1A16C"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFE1A16C"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FFE1A16C"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFE1A16C"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FFE1A16C"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FFE1A16C"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FFE1A16C"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FFE1A16C"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -297,17 +249,6 @@
         <color rgb="FFD9D9D9"/>
       </left>
       <right/>
-      <top style="medium">
-        <color rgb="FFE1A16C"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFD9D9D9"/>
-      </left>
-      <right/>
       <top/>
       <bottom/>
       <diagonal/>
@@ -337,17 +278,6 @@
       <right style="thin">
         <color rgb="FFD9D9D9"/>
       </right>
-      <top style="medium">
-        <color rgb="FFE1A16C"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FFD9D9D9"/>
-      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -363,6 +293,167 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFE1A16C"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFE1A16C"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFE1A16C"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFE1A16C"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFE1A16C"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFE1A16C"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFE1A16C"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFE1A16C"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFE1A16C"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFE1A16C"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFE1A16C"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFE1A16C"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFE1A16C"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFE1A16C"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFE1A16C"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFE1A16C"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFE1A16C"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFE1A16C"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFE1A16C"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFE1A16C"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFE1A16C"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFE1A16C"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFE1A16C"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFE1A16C"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFE1A16C"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFE1A16C"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFE1A16C"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFE1A16C"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFE1A16C"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFE1A16C"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFE1A16C"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFE1A16C"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFE1A16C"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFE1A16C"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFE1A16C"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFE1A16C"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFE1A16C"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFE1A16C"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFE1A16C"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFE1A16C"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FFE1A16C"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFE1A16C"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -375,7 +466,7 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -384,97 +475,109 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -484,9 +587,9 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFE1A16C"/>
       <color rgb="FFFEF1E6"/>
       <color rgb="FFD9D9D9"/>
-      <color rgb="FFE1A16C"/>
       <color rgb="FFFDC689"/>
     </mruColors>
   </colors>
@@ -798,10 +901,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C80A0C24-7431-430F-9021-A877E1BD9DCC}">
-  <dimension ref="A1:G45"/>
+  <dimension ref="A1:G43"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -809,42 +912,42 @@
     <col min="2" max="2" width="34.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="29" t="s">
+    <row r="1" spans="1:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="31"/>
-    </row>
-    <row r="2" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="32" t="s">
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="24"/>
+    </row>
+    <row r="2" spans="1:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="33"/>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="34"/>
-    </row>
-    <row r="3" spans="1:7" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="35" t="str">
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="26"/>
+    </row>
+    <row r="3" spans="1:7" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="27" t="str">
         <f ca="1">"For the Month Ended June 30, "&amp;YEAR(TODAY())</f>
         <v>For the Month Ended June 30, 2019</v>
       </c>
-      <c r="B3" s="36"/>
-      <c r="C3" s="36"/>
-      <c r="D3" s="36"/>
-      <c r="E3" s="36"/>
-      <c r="F3" s="36"/>
-      <c r="G3" s="8"/>
+      <c r="B3" s="28"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="34"/>
     </row>
     <row r="4" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="16"/>
+      <c r="A4" s="8"/>
       <c r="B4" s="1" t="s">
         <v>5</v>
       </c>
@@ -852,23 +955,23 @@
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
-      <c r="G4" s="23"/>
+      <c r="G4" s="19"/>
     </row>
     <row r="5" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="17"/>
-      <c r="B5" s="9" t="s">
+      <c r="A5" s="8"/>
+      <c r="B5" s="35" t="s">
         <v>6</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="2"/>
       <c r="E5" s="3"/>
-      <c r="F5" s="10">
+      <c r="F5" s="36">
         <v>3750</v>
       </c>
-      <c r="G5" s="24"/>
+      <c r="G5" s="14"/>
     </row>
     <row r="6" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="17"/>
+      <c r="A6" s="8"/>
       <c r="B6" s="2" t="s">
         <v>5</v>
       </c>
@@ -876,152 +979,152 @@
       <c r="D6" s="2"/>
       <c r="E6" s="3"/>
       <c r="F6" s="2"/>
-      <c r="G6" s="24"/>
+      <c r="G6" s="14"/>
     </row>
     <row r="7" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="17"/>
-      <c r="B7" s="10" t="s">
+      <c r="A7" s="8"/>
+      <c r="B7" s="36" t="s">
         <v>7</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="2"/>
       <c r="E7" s="3"/>
       <c r="F7" s="2"/>
-      <c r="G7" s="24"/>
+      <c r="G7" s="14"/>
     </row>
     <row r="8" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="17"/>
-      <c r="B8" s="10" t="s">
+      <c r="A8" s="8"/>
+      <c r="B8" s="36" t="s">
         <v>8</v>
       </c>
       <c r="C8" s="3"/>
-      <c r="D8" s="10">
+      <c r="D8" s="36">
         <v>1200</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="2"/>
-      <c r="G8" s="24"/>
+      <c r="G8" s="14"/>
     </row>
     <row r="9" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="17"/>
-      <c r="B9" s="10" t="s">
+      <c r="A9" s="8"/>
+      <c r="B9" s="36" t="s">
         <v>9</v>
       </c>
       <c r="C9" s="3"/>
-      <c r="D9" s="11">
+      <c r="D9" s="37">
         <v>220</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="2"/>
-      <c r="G9" s="24"/>
+      <c r="G9" s="14"/>
     </row>
     <row r="10" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="17"/>
-      <c r="B10" s="10" t="s">
+      <c r="A10" s="8"/>
+      <c r="B10" s="36" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="3"/>
-      <c r="D10" s="11">
+      <c r="D10" s="37">
         <v>175</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="2"/>
-      <c r="G10" s="24"/>
+      <c r="G10" s="14"/>
     </row>
     <row r="11" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="17"/>
-      <c r="B11" s="10" t="s">
+      <c r="A11" s="8"/>
+      <c r="B11" s="36" t="s">
         <v>11</v>
       </c>
       <c r="C11" s="3"/>
-      <c r="D11" s="12">
+      <c r="D11" s="38">
         <v>50</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="2"/>
-      <c r="G11" s="24"/>
+      <c r="G11" s="14"/>
     </row>
     <row r="12" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="17"/>
-      <c r="B12" s="10" t="s">
+      <c r="A12" s="8"/>
+      <c r="B12" s="36" t="s">
         <v>12</v>
       </c>
       <c r="C12" s="3"/>
       <c r="D12" s="2"/>
       <c r="E12" s="3"/>
-      <c r="F12" s="12">
+      <c r="F12" s="38">
         <v>1645</v>
       </c>
-      <c r="G12" s="24"/>
+      <c r="G12" s="14"/>
     </row>
     <row r="13" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="17"/>
-      <c r="B13" s="10" t="s">
+      <c r="A13" s="8"/>
+      <c r="B13" s="36" t="s">
         <v>13</v>
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="2"/>
       <c r="E13" s="3"/>
-      <c r="F13" s="13">
+      <c r="F13" s="39">
         <v>2105</v>
       </c>
-      <c r="G13" s="24"/>
+      <c r="G13" s="14"/>
     </row>
     <row r="14" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="18"/>
-      <c r="B14" s="19" t="s">
+      <c r="A14" s="9"/>
+      <c r="B14" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C14" s="20"/>
-      <c r="D14" s="20"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="25"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="15"/>
     </row>
     <row r="15" spans="1:7" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="28"/>
-      <c r="B15" s="28"/>
-      <c r="C15" s="27"/>
-      <c r="D15" s="28"/>
-      <c r="E15" s="28"/>
-      <c r="F15" s="28"/>
-      <c r="G15" s="27"/>
-    </row>
-    <row r="16" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="29" t="s">
+      <c r="A15" s="18"/>
+      <c r="B15" s="18"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="17"/>
+    </row>
+    <row r="16" spans="1:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B16" s="38"/>
-      <c r="C16" s="38"/>
-      <c r="D16" s="38"/>
-      <c r="E16" s="38"/>
-      <c r="F16" s="38"/>
-      <c r="G16" s="39"/>
-    </row>
-    <row r="17" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="32" t="s">
+      <c r="B16" s="30"/>
+      <c r="C16" s="30"/>
+      <c r="D16" s="30"/>
+      <c r="E16" s="30"/>
+      <c r="F16" s="30"/>
+      <c r="G16" s="31"/>
+    </row>
+    <row r="17" spans="1:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="B17" s="40"/>
-      <c r="C17" s="40"/>
-      <c r="D17" s="40"/>
-      <c r="E17" s="40"/>
-      <c r="F17" s="40"/>
-      <c r="G17" s="41"/>
-    </row>
-    <row r="18" spans="1:7" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="35" t="s">
+      <c r="B17" s="20"/>
+      <c r="C17" s="20"/>
+      <c r="D17" s="20"/>
+      <c r="E17" s="20"/>
+      <c r="F17" s="20"/>
+      <c r="G17" s="32"/>
+    </row>
+    <row r="18" spans="1:7" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="B18" s="36"/>
-      <c r="C18" s="36"/>
-      <c r="D18" s="36"/>
-      <c r="E18" s="36"/>
-      <c r="F18" s="36"/>
-      <c r="G18" s="37"/>
+      <c r="B18" s="28"/>
+      <c r="C18" s="28"/>
+      <c r="D18" s="28"/>
+      <c r="E18" s="28"/>
+      <c r="F18" s="28"/>
+      <c r="G18" s="29"/>
     </row>
     <row r="19" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="16"/>
+      <c r="A19" s="8"/>
       <c r="B19" s="1" t="s">
         <v>5</v>
       </c>
@@ -1029,129 +1132,129 @@
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
-      <c r="G19" s="23"/>
+      <c r="G19" s="19"/>
     </row>
     <row r="20" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="17"/>
-      <c r="B20" s="9" t="s">
+      <c r="A20" s="8"/>
+      <c r="B20" s="35" t="s">
         <v>14</v>
       </c>
       <c r="C20" s="3"/>
       <c r="D20" s="2"/>
       <c r="E20" s="3"/>
-      <c r="F20" s="10">
+      <c r="F20" s="36">
         <v>0</v>
       </c>
-      <c r="G20" s="24"/>
+      <c r="G20" s="14"/>
     </row>
     <row r="21" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="17"/>
-      <c r="B21" s="9" t="s">
+      <c r="A21" s="8"/>
+      <c r="B21" s="35" t="s">
         <v>13</v>
       </c>
       <c r="C21" s="3"/>
-      <c r="D21" s="10">
+      <c r="D21" s="36">
         <v>2105</v>
       </c>
       <c r="E21" s="3"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="24"/>
+      <c r="F21" s="40"/>
+      <c r="G21" s="14"/>
     </row>
     <row r="22" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="17"/>
-      <c r="B22" s="9" t="s">
+      <c r="A22" s="8"/>
+      <c r="B22" s="35" t="s">
         <v>15</v>
       </c>
       <c r="C22" s="3"/>
-      <c r="D22" s="12">
+      <c r="D22" s="38">
         <v>700</v>
       </c>
       <c r="E22" s="3"/>
       <c r="F22" s="2"/>
-      <c r="G22" s="24"/>
+      <c r="G22" s="14"/>
     </row>
     <row r="23" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="17"/>
-      <c r="B23" s="9" t="s">
+      <c r="A23" s="8"/>
+      <c r="B23" s="35" t="s">
         <v>16</v>
       </c>
       <c r="C23" s="3"/>
       <c r="D23" s="2"/>
       <c r="E23" s="3"/>
-      <c r="F23" s="12">
+      <c r="F23" s="38">
         <v>1405</v>
       </c>
-      <c r="G23" s="24"/>
+      <c r="G23" s="14"/>
     </row>
     <row r="24" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="17"/>
-      <c r="B24" s="9" t="s">
+      <c r="A24" s="8"/>
+      <c r="B24" s="35" t="s">
         <v>17</v>
       </c>
       <c r="C24" s="3"/>
       <c r="D24" s="2"/>
       <c r="E24" s="3"/>
-      <c r="F24" s="13">
+      <c r="F24" s="39">
         <v>1405</v>
       </c>
-      <c r="G24" s="24"/>
+      <c r="G24" s="14"/>
     </row>
     <row r="25" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="18"/>
-      <c r="B25" s="19" t="s">
+      <c r="A25" s="9"/>
+      <c r="B25" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C25" s="20"/>
-      <c r="D25" s="20"/>
-      <c r="E25" s="20"/>
-      <c r="F25" s="20"/>
-      <c r="G25" s="25"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="15"/>
     </row>
     <row r="26" spans="1:7" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="28"/>
-      <c r="B26" s="27"/>
-      <c r="C26" s="27"/>
-      <c r="D26" s="27"/>
-      <c r="E26" s="27"/>
-      <c r="F26" s="27"/>
-      <c r="G26" s="27"/>
-    </row>
-    <row r="27" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="29" t="s">
+      <c r="A26" s="18"/>
+      <c r="B26" s="17"/>
+      <c r="C26" s="17"/>
+      <c r="D26" s="17"/>
+      <c r="E26" s="17"/>
+      <c r="F26" s="17"/>
+      <c r="G26" s="17"/>
+    </row>
+    <row r="27" spans="1:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B27" s="30"/>
-      <c r="C27" s="30"/>
-      <c r="D27" s="30"/>
-      <c r="E27" s="30"/>
-      <c r="F27" s="30"/>
-      <c r="G27" s="31"/>
-    </row>
-    <row r="28" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="32" t="s">
+      <c r="B27" s="23"/>
+      <c r="C27" s="23"/>
+      <c r="D27" s="23"/>
+      <c r="E27" s="23"/>
+      <c r="F27" s="23"/>
+      <c r="G27" s="24"/>
+    </row>
+    <row r="28" spans="1:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="B28" s="33"/>
-      <c r="C28" s="33"/>
-      <c r="D28" s="33"/>
-      <c r="E28" s="33"/>
-      <c r="F28" s="33"/>
-      <c r="G28" s="34"/>
-    </row>
-    <row r="29" spans="1:7" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="35" t="str">
+      <c r="B28" s="21"/>
+      <c r="C28" s="21"/>
+      <c r="D28" s="21"/>
+      <c r="E28" s="21"/>
+      <c r="F28" s="21"/>
+      <c r="G28" s="26"/>
+    </row>
+    <row r="29" spans="1:7" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="27" t="str">
         <f ca="1">"June 30, "&amp;YEAR(TODAY())</f>
         <v>June 30, 2019</v>
       </c>
-      <c r="B29" s="36"/>
-      <c r="C29" s="36"/>
-      <c r="D29" s="36"/>
-      <c r="E29" s="36"/>
-      <c r="F29" s="36"/>
-      <c r="G29" s="37"/>
+      <c r="B29" s="28"/>
+      <c r="C29" s="28"/>
+      <c r="D29" s="28"/>
+      <c r="E29" s="28"/>
+      <c r="F29" s="28"/>
+      <c r="G29" s="29"/>
     </row>
     <row r="30" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="16"/>
+      <c r="A30" s="8"/>
       <c r="B30" s="1" t="s">
         <v>5</v>
       </c>
@@ -1159,176 +1262,158 @@
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
-      <c r="G30" s="23"/>
+      <c r="G30" s="19"/>
     </row>
     <row r="31" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="17"/>
-      <c r="B31" s="14" t="s">
+      <c r="A31" s="8"/>
+      <c r="B31" s="41" t="s">
         <v>18</v>
       </c>
       <c r="C31" s="3"/>
       <c r="D31" s="2"/>
       <c r="E31" s="3"/>
       <c r="F31" s="2"/>
-      <c r="G31" s="24"/>
+      <c r="G31" s="14"/>
     </row>
     <row r="32" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="17"/>
-      <c r="B32" s="15" t="s">
+      <c r="A32" s="8"/>
+      <c r="B32" s="35" t="s">
         <v>19</v>
       </c>
       <c r="C32" s="3"/>
-      <c r="D32" s="10">
+      <c r="D32" s="36">
         <v>8635</v>
       </c>
       <c r="E32" s="3"/>
       <c r="F32" s="2"/>
-      <c r="G32" s="24"/>
+      <c r="G32" s="14"/>
     </row>
     <row r="33" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="17"/>
-      <c r="B33" s="15" t="s">
+      <c r="A33" s="8"/>
+      <c r="B33" s="35" t="s">
         <v>20</v>
       </c>
       <c r="C33" s="3"/>
-      <c r="D33" s="12">
+      <c r="D33" s="38">
         <v>2800</v>
       </c>
       <c r="E33" s="3"/>
       <c r="F33" s="4"/>
-      <c r="G33" s="24"/>
+      <c r="G33" s="14"/>
     </row>
     <row r="34" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="17"/>
-      <c r="B34" s="15" t="s">
+      <c r="A34" s="8"/>
+      <c r="B34" s="35" t="s">
         <v>21</v>
       </c>
       <c r="C34" s="3"/>
       <c r="D34" s="4"/>
       <c r="E34" s="3"/>
-      <c r="F34" s="13">
+      <c r="F34" s="39">
         <v>11435</v>
       </c>
-      <c r="G34" s="24"/>
+      <c r="G34" s="14"/>
     </row>
     <row r="35" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="17"/>
+      <c r="A35" s="8"/>
       <c r="B35" s="5"/>
       <c r="C35" s="3"/>
       <c r="D35" s="2"/>
       <c r="E35" s="3"/>
       <c r="F35" s="6"/>
-      <c r="G35" s="24"/>
+      <c r="G35" s="14"/>
     </row>
     <row r="36" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="17"/>
-      <c r="B36" s="14" t="s">
+      <c r="A36" s="8"/>
+      <c r="B36" s="41" t="s">
         <v>22</v>
       </c>
       <c r="C36" s="3"/>
       <c r="D36" s="2"/>
       <c r="E36" s="3"/>
       <c r="F36" s="2"/>
-      <c r="G36" s="24"/>
+      <c r="G36" s="14"/>
     </row>
     <row r="37" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="17"/>
-      <c r="B37" s="9" t="s">
+      <c r="A37" s="8"/>
+      <c r="B37" s="35" t="s">
         <v>23</v>
       </c>
       <c r="C37" s="3"/>
-      <c r="D37" s="10">
+      <c r="D37" s="36">
         <v>30</v>
       </c>
       <c r="E37" s="3"/>
       <c r="F37" s="7"/>
-      <c r="G37" s="24"/>
+      <c r="G37" s="14"/>
     </row>
     <row r="38" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="17"/>
+      <c r="A38" s="8"/>
       <c r="B38" s="5"/>
       <c r="C38" s="3"/>
       <c r="D38" s="2"/>
       <c r="E38" s="3"/>
       <c r="F38" s="6"/>
-      <c r="G38" s="24"/>
+      <c r="G38" s="14"/>
     </row>
     <row r="39" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="17"/>
-      <c r="B39" s="14" t="s">
+      <c r="A39" s="8"/>
+      <c r="B39" s="41" t="s">
         <v>24</v>
       </c>
       <c r="C39" s="3"/>
       <c r="D39" s="2"/>
       <c r="E39" s="3"/>
       <c r="F39" s="6"/>
-      <c r="G39" s="24"/>
+      <c r="G39" s="14"/>
     </row>
     <row r="40" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="17"/>
-      <c r="B40" s="10" t="s">
+      <c r="A40" s="8"/>
+      <c r="B40" s="36" t="s">
         <v>25</v>
       </c>
       <c r="C40" s="3"/>
-      <c r="D40" s="10">
+      <c r="D40" s="36">
         <v>10000</v>
       </c>
       <c r="E40" s="3"/>
       <c r="F40" s="2"/>
-      <c r="G40" s="24"/>
+      <c r="G40" s="14"/>
     </row>
     <row r="41" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="17"/>
-      <c r="B41" s="9" t="s">
+      <c r="A41" s="8"/>
+      <c r="B41" s="35" t="s">
         <v>26</v>
       </c>
       <c r="C41" s="3"/>
-      <c r="D41" s="12">
+      <c r="D41" s="38">
         <v>1405</v>
       </c>
       <c r="E41" s="3"/>
       <c r="F41" s="6"/>
-      <c r="G41" s="24"/>
+      <c r="G41" s="14"/>
     </row>
     <row r="42" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="17"/>
-      <c r="B42" s="9" t="s">
+      <c r="A42" s="8"/>
+      <c r="B42" s="35" t="s">
         <v>27</v>
       </c>
       <c r="C42" s="3"/>
       <c r="D42" s="2"/>
       <c r="E42" s="3"/>
-      <c r="F42" s="13">
+      <c r="F42" s="39">
         <v>11435</v>
       </c>
-      <c r="G42" s="24"/>
+      <c r="G42" s="14"/>
     </row>
     <row r="43" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="21"/>
-      <c r="B43" s="22"/>
-      <c r="C43" s="22"/>
-      <c r="D43" s="22"/>
-      <c r="E43" s="22"/>
-      <c r="F43" s="22"/>
-      <c r="G43" s="26"/>
-    </row>
-    <row r="44" spans="1:7" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="27"/>
-      <c r="B44" s="27"/>
-      <c r="C44" s="27"/>
-      <c r="D44" s="27"/>
-      <c r="E44" s="27"/>
-      <c r="F44" s="27"/>
-      <c r="G44" s="27"/>
-    </row>
-    <row r="45" spans="1:7" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="27"/>
-      <c r="B45" s="27"/>
-      <c r="C45" s="27"/>
-      <c r="D45" s="27"/>
-      <c r="E45" s="27"/>
-      <c r="F45" s="27"/>
-      <c r="G45" s="27"/>
+      <c r="A43" s="12"/>
+      <c r="B43" s="13"/>
+      <c r="C43" s="13"/>
+      <c r="D43" s="13"/>
+      <c r="E43" s="13"/>
+      <c r="F43" s="13"/>
+      <c r="G43" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -1343,5 +1428,6 @@
     <mergeCell ref="A17:G17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/assets/public/Chapter_4_ComprehensiveProblem/documents/resources/Assessment_Questions/5.5_Student_A_Sheet.xlsx
+++ b/assets/public/Chapter_4_ComprehensiveProblem/documents/resources/Assessment_Questions/5.5_Student_A_Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SakshiV\Dropbox\Accounting Courseware\Chapter_4_ComprehensiveProblem\documents\resources\Assessment_Questions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DC15D7E-926B-4EED-9378-853B5A3CB7B8}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{038FDDE5-190A-4E92-BD85-E629B3A14A24}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11640" xr2:uid="{A967B6E2-7F77-4690-A937-D71849A1AE83}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="28">
   <si>
     <t>State-to-State Consulting</t>
   </si>
@@ -124,7 +124,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -152,35 +152,6 @@
       <family val="2"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -190,6 +161,22 @@
     <font>
       <b/>
       <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -458,7 +445,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" shrinkToFit="1"/>
@@ -513,71 +500,65 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -913,36 +894,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="24"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="27"/>
     </row>
     <row r="2" spans="1:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="26"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="30"/>
     </row>
     <row r="3" spans="1:7" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="27" t="str">
+      <c r="A3" s="31" t="str">
         <f ca="1">"For the Month Ended June 30, "&amp;YEAR(TODAY())</f>
         <v>For the Month Ended June 30, 2019</v>
       </c>
-      <c r="B3" s="28"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
+      <c r="B3" s="32"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
       <c r="F3" s="33"/>
       <c r="G3" s="34"/>
     </row>
@@ -959,13 +940,13 @@
     </row>
     <row r="5" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="8"/>
-      <c r="B5" s="35" t="s">
+      <c r="B5" s="20" t="s">
         <v>6</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="2"/>
       <c r="E5" s="3"/>
-      <c r="F5" s="36">
+      <c r="F5" s="24">
         <v>3750</v>
       </c>
       <c r="G5" s="14"/>
@@ -983,7 +964,7 @@
     </row>
     <row r="7" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="8"/>
-      <c r="B7" s="36" t="s">
+      <c r="B7" s="21" t="s">
         <v>7</v>
       </c>
       <c r="C7" s="3"/>
@@ -994,11 +975,11 @@
     </row>
     <row r="8" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="8"/>
-      <c r="B8" s="36" t="s">
+      <c r="B8" s="21" t="s">
         <v>8</v>
       </c>
       <c r="C8" s="3"/>
-      <c r="D8" s="36">
+      <c r="D8" s="24">
         <v>1200</v>
       </c>
       <c r="E8" s="3"/>
@@ -1007,11 +988,11 @@
     </row>
     <row r="9" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="8"/>
-      <c r="B9" s="36" t="s">
+      <c r="B9" s="21" t="s">
         <v>9</v>
       </c>
       <c r="C9" s="3"/>
-      <c r="D9" s="37">
+      <c r="D9" s="24">
         <v>220</v>
       </c>
       <c r="E9" s="3"/>
@@ -1020,11 +1001,11 @@
     </row>
     <row r="10" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="8"/>
-      <c r="B10" s="36" t="s">
+      <c r="B10" s="21" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="3"/>
-      <c r="D10" s="37">
+      <c r="D10" s="24">
         <v>175</v>
       </c>
       <c r="E10" s="3"/>
@@ -1033,11 +1014,11 @@
     </row>
     <row r="11" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="8"/>
-      <c r="B11" s="36" t="s">
+      <c r="B11" s="21" t="s">
         <v>11</v>
       </c>
       <c r="C11" s="3"/>
-      <c r="D11" s="38">
+      <c r="D11" s="24">
         <v>50</v>
       </c>
       <c r="E11" s="3"/>
@@ -1046,26 +1027,26 @@
     </row>
     <row r="12" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="8"/>
-      <c r="B12" s="36" t="s">
+      <c r="B12" s="21" t="s">
         <v>12</v>
       </c>
       <c r="C12" s="3"/>
       <c r="D12" s="2"/>
       <c r="E12" s="3"/>
-      <c r="F12" s="38">
+      <c r="F12" s="24">
         <v>1645</v>
       </c>
       <c r="G12" s="14"/>
     </row>
     <row r="13" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="8"/>
-      <c r="B13" s="36" t="s">
+      <c r="B13" s="21" t="s">
         <v>13</v>
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="2"/>
       <c r="E13" s="3"/>
-      <c r="F13" s="39">
+      <c r="F13" s="24">
         <v>2105</v>
       </c>
       <c r="G13" s="14"/>
@@ -1091,37 +1072,37 @@
       <c r="G15" s="17"/>
     </row>
     <row r="16" spans="1:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="22" t="s">
+      <c r="A16" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B16" s="30"/>
-      <c r="C16" s="30"/>
-      <c r="D16" s="30"/>
-      <c r="E16" s="30"/>
-      <c r="F16" s="30"/>
-      <c r="G16" s="31"/>
+      <c r="B16" s="35"/>
+      <c r="C16" s="35"/>
+      <c r="D16" s="35"/>
+      <c r="E16" s="35"/>
+      <c r="F16" s="35"/>
+      <c r="G16" s="36"/>
     </row>
     <row r="17" spans="1:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="25" t="s">
+      <c r="A17" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="B17" s="20"/>
-      <c r="C17" s="20"/>
-      <c r="D17" s="20"/>
-      <c r="E17" s="20"/>
-      <c r="F17" s="20"/>
-      <c r="G17" s="32"/>
+      <c r="B17" s="37"/>
+      <c r="C17" s="37"/>
+      <c r="D17" s="37"/>
+      <c r="E17" s="37"/>
+      <c r="F17" s="37"/>
+      <c r="G17" s="38"/>
     </row>
     <row r="18" spans="1:7" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="27" t="s">
+      <c r="A18" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="B18" s="28"/>
-      <c r="C18" s="28"/>
-      <c r="D18" s="28"/>
-      <c r="E18" s="28"/>
-      <c r="F18" s="28"/>
-      <c r="G18" s="29"/>
+      <c r="B18" s="32"/>
+      <c r="C18" s="32"/>
+      <c r="D18" s="32"/>
+      <c r="E18" s="32"/>
+      <c r="F18" s="32"/>
+      <c r="G18" s="39"/>
     </row>
     <row r="19" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="8"/>
@@ -1136,37 +1117,37 @@
     </row>
     <row r="20" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="8"/>
-      <c r="B20" s="35" t="s">
+      <c r="B20" s="20" t="s">
         <v>14</v>
       </c>
       <c r="C20" s="3"/>
       <c r="D20" s="2"/>
       <c r="E20" s="3"/>
-      <c r="F20" s="36">
+      <c r="F20" s="24">
         <v>0</v>
       </c>
       <c r="G20" s="14"/>
     </row>
     <row r="21" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="8"/>
-      <c r="B21" s="35" t="s">
+      <c r="B21" s="20" t="s">
         <v>13</v>
       </c>
       <c r="C21" s="3"/>
-      <c r="D21" s="36">
+      <c r="D21" s="24">
         <v>2105</v>
       </c>
       <c r="E21" s="3"/>
-      <c r="F21" s="40"/>
+      <c r="F21" s="22"/>
       <c r="G21" s="14"/>
     </row>
     <row r="22" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="8"/>
-      <c r="B22" s="35" t="s">
+      <c r="B22" s="20" t="s">
         <v>15</v>
       </c>
       <c r="C22" s="3"/>
-      <c r="D22" s="38">
+      <c r="D22" s="24">
         <v>700</v>
       </c>
       <c r="E22" s="3"/>
@@ -1175,26 +1156,26 @@
     </row>
     <row r="23" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="8"/>
-      <c r="B23" s="35" t="s">
+      <c r="B23" s="20" t="s">
         <v>16</v>
       </c>
       <c r="C23" s="3"/>
       <c r="D23" s="2"/>
       <c r="E23" s="3"/>
-      <c r="F23" s="38">
+      <c r="F23" s="24">
         <v>1405</v>
       </c>
       <c r="G23" s="14"/>
     </row>
     <row r="24" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="8"/>
-      <c r="B24" s="35" t="s">
+      <c r="B24" s="20" t="s">
         <v>17</v>
       </c>
       <c r="C24" s="3"/>
       <c r="D24" s="2"/>
       <c r="E24" s="3"/>
-      <c r="F24" s="39">
+      <c r="F24" s="24">
         <v>1405</v>
       </c>
       <c r="G24" s="14"/>
@@ -1220,38 +1201,38 @@
       <c r="G26" s="17"/>
     </row>
     <row r="27" spans="1:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="22" t="s">
+      <c r="A27" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B27" s="23"/>
-      <c r="C27" s="23"/>
-      <c r="D27" s="23"/>
-      <c r="E27" s="23"/>
-      <c r="F27" s="23"/>
-      <c r="G27" s="24"/>
+      <c r="B27" s="26"/>
+      <c r="C27" s="26"/>
+      <c r="D27" s="26"/>
+      <c r="E27" s="26"/>
+      <c r="F27" s="26"/>
+      <c r="G27" s="27"/>
     </row>
     <row r="28" spans="1:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="25" t="s">
+      <c r="A28" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="B28" s="21"/>
-      <c r="C28" s="21"/>
-      <c r="D28" s="21"/>
-      <c r="E28" s="21"/>
-      <c r="F28" s="21"/>
-      <c r="G28" s="26"/>
+      <c r="B28" s="29"/>
+      <c r="C28" s="29"/>
+      <c r="D28" s="29"/>
+      <c r="E28" s="29"/>
+      <c r="F28" s="29"/>
+      <c r="G28" s="30"/>
     </row>
     <row r="29" spans="1:7" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="27" t="str">
+      <c r="A29" s="31" t="str">
         <f ca="1">"June 30, "&amp;YEAR(TODAY())</f>
         <v>June 30, 2019</v>
       </c>
-      <c r="B29" s="28"/>
-      <c r="C29" s="28"/>
-      <c r="D29" s="28"/>
-      <c r="E29" s="28"/>
-      <c r="F29" s="28"/>
-      <c r="G29" s="29"/>
+      <c r="B29" s="32"/>
+      <c r="C29" s="32"/>
+      <c r="D29" s="32"/>
+      <c r="E29" s="32"/>
+      <c r="F29" s="32"/>
+      <c r="G29" s="39"/>
     </row>
     <row r="30" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="8"/>
@@ -1266,7 +1247,7 @@
     </row>
     <row r="31" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="8"/>
-      <c r="B31" s="41" t="s">
+      <c r="B31" s="23" t="s">
         <v>18</v>
       </c>
       <c r="C31" s="3"/>
@@ -1277,11 +1258,11 @@
     </row>
     <row r="32" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="8"/>
-      <c r="B32" s="35" t="s">
+      <c r="B32" s="20" t="s">
         <v>19</v>
       </c>
       <c r="C32" s="3"/>
-      <c r="D32" s="36">
+      <c r="D32" s="24">
         <v>8635</v>
       </c>
       <c r="E32" s="3"/>
@@ -1290,11 +1271,11 @@
     </row>
     <row r="33" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="8"/>
-      <c r="B33" s="35" t="s">
+      <c r="B33" s="20" t="s">
         <v>20</v>
       </c>
       <c r="C33" s="3"/>
-      <c r="D33" s="38">
+      <c r="D33" s="24">
         <v>2800</v>
       </c>
       <c r="E33" s="3"/>
@@ -1303,13 +1284,13 @@
     </row>
     <row r="34" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="8"/>
-      <c r="B34" s="35" t="s">
+      <c r="B34" s="20" t="s">
         <v>21</v>
       </c>
       <c r="C34" s="3"/>
       <c r="D34" s="4"/>
       <c r="E34" s="3"/>
-      <c r="F34" s="39">
+      <c r="F34" s="24">
         <v>11435</v>
       </c>
       <c r="G34" s="14"/>
@@ -1325,7 +1306,7 @@
     </row>
     <row r="36" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="8"/>
-      <c r="B36" s="41" t="s">
+      <c r="B36" s="23" t="s">
         <v>22</v>
       </c>
       <c r="C36" s="3"/>
@@ -1336,11 +1317,11 @@
     </row>
     <row r="37" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="8"/>
-      <c r="B37" s="35" t="s">
+      <c r="B37" s="20" t="s">
         <v>23</v>
       </c>
       <c r="C37" s="3"/>
-      <c r="D37" s="36">
+      <c r="D37" s="24">
         <v>30</v>
       </c>
       <c r="E37" s="3"/>
@@ -1358,7 +1339,7 @@
     </row>
     <row r="39" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="8"/>
-      <c r="B39" s="41" t="s">
+      <c r="B39" s="23" t="s">
         <v>24</v>
       </c>
       <c r="C39" s="3"/>
@@ -1369,11 +1350,11 @@
     </row>
     <row r="40" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="8"/>
-      <c r="B40" s="36" t="s">
+      <c r="B40" s="21" t="s">
         <v>25</v>
       </c>
       <c r="C40" s="3"/>
-      <c r="D40" s="36">
+      <c r="D40" s="24">
         <v>10000</v>
       </c>
       <c r="E40" s="3"/>
@@ -1382,11 +1363,11 @@
     </row>
     <row r="41" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="8"/>
-      <c r="B41" s="35" t="s">
+      <c r="B41" s="20" t="s">
         <v>26</v>
       </c>
       <c r="C41" s="3"/>
-      <c r="D41" s="38">
+      <c r="D41" s="24">
         <v>1405</v>
       </c>
       <c r="E41" s="3"/>
@@ -1395,13 +1376,13 @@
     </row>
     <row r="42" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="8"/>
-      <c r="B42" s="35" t="s">
+      <c r="B42" s="20" t="s">
         <v>27</v>
       </c>
       <c r="C42" s="3"/>
       <c r="D42" s="2"/>
       <c r="E42" s="3"/>
-      <c r="F42" s="39">
+      <c r="F42" s="24">
         <v>11435</v>
       </c>
       <c r="G42" s="14"/>

--- a/assets/public/Chapter_4_ComprehensiveProblem/documents/resources/Assessment_Questions/5.5_Student_A_Sheet.xlsx
+++ b/assets/public/Chapter_4_ComprehensiveProblem/documents/resources/Assessment_Questions/5.5_Student_A_Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SakshiV\Dropbox\Accounting Courseware\Chapter_4_ComprehensiveProblem\documents\resources\Assessment_Questions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{038FDDE5-190A-4E92-BD85-E629B3A14A24}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26626258-AA19-4353-B188-B676CEA30367}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11640" xr2:uid="{A967B6E2-7F77-4690-A937-D71849A1AE83}"/>
   </bookViews>
@@ -208,7 +208,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -429,9 +429,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="medium">
         <color rgb="FFE1A16C"/>
       </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FFE1A16C"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFE1A16C"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right/>
       <top style="thin">
         <color rgb="FFE1A16C"/>
@@ -445,7 +456,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" shrinkToFit="1"/>
@@ -539,11 +550,8 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
@@ -557,8 +565,14 @@
     <xf numFmtId="164" fontId="6" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -916,16 +930,16 @@
       <c r="G2" s="30"/>
     </row>
     <row r="3" spans="1:7" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="31" t="str">
+      <c r="A3" s="38" t="str">
         <f ca="1">"For the Month Ended June 30, "&amp;YEAR(TODAY())</f>
         <v>For the Month Ended June 30, 2019</v>
       </c>
-      <c r="B3" s="32"/>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="33"/>
-      <c r="G3" s="34"/>
+      <c r="B3" s="39"/>
+      <c r="C3" s="39"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="39"/>
+      <c r="G3" s="40"/>
     </row>
     <row r="4" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="8"/>
@@ -1075,23 +1089,23 @@
       <c r="A16" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B16" s="35"/>
-      <c r="C16" s="35"/>
-      <c r="D16" s="35"/>
-      <c r="E16" s="35"/>
-      <c r="F16" s="35"/>
-      <c r="G16" s="36"/>
+      <c r="B16" s="34"/>
+      <c r="C16" s="34"/>
+      <c r="D16" s="34"/>
+      <c r="E16" s="34"/>
+      <c r="F16" s="34"/>
+      <c r="G16" s="35"/>
     </row>
     <row r="17" spans="1:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="B17" s="37"/>
-      <c r="C17" s="37"/>
-      <c r="D17" s="37"/>
-      <c r="E17" s="37"/>
-      <c r="F17" s="37"/>
-      <c r="G17" s="38"/>
+      <c r="B17" s="36"/>
+      <c r="C17" s="36"/>
+      <c r="D17" s="36"/>
+      <c r="E17" s="36"/>
+      <c r="F17" s="36"/>
+      <c r="G17" s="37"/>
     </row>
     <row r="18" spans="1:7" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="31" t="s">
@@ -1102,7 +1116,7 @@
       <c r="D18" s="32"/>
       <c r="E18" s="32"/>
       <c r="F18" s="32"/>
-      <c r="G18" s="39"/>
+      <c r="G18" s="33"/>
     </row>
     <row r="19" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="8"/>
@@ -1232,7 +1246,7 @@
       <c r="D29" s="32"/>
       <c r="E29" s="32"/>
       <c r="F29" s="32"/>
-      <c r="G29" s="39"/>
+      <c r="G29" s="33"/>
     </row>
     <row r="30" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="8"/>
@@ -1404,9 +1418,9 @@
     <mergeCell ref="A18:G18"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="A2:G2"/>
-    <mergeCell ref="A3:F3"/>
     <mergeCell ref="A16:G16"/>
     <mergeCell ref="A17:G17"/>
+    <mergeCell ref="A3:G3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/assets/public/Chapter_4_ComprehensiveProblem/documents/resources/Assessment_Questions/5.5_Student_A_Sheet.xlsx
+++ b/assets/public/Chapter_4_ComprehensiveProblem/documents/resources/Assessment_Questions/5.5_Student_A_Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SakshiV\Dropbox\Accounting Courseware\Chapter_4_ComprehensiveProblem\documents\resources\Assessment_Questions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26626258-AA19-4353-B188-B676CEA30367}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FFF5E9F-CA82-4F5D-83D7-9DF04FE61BB3}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11640" xr2:uid="{A967B6E2-7F77-4690-A937-D71849A1AE83}"/>
   </bookViews>
@@ -208,7 +208,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -295,168 +295,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFE1A16C"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFE1A16C"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFE1A16C"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFE1A16C"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFE1A16C"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFE1A16C"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFE1A16C"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFE1A16C"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFE1A16C"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFE1A16C"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFE1A16C"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFE1A16C"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFE1A16C"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFE1A16C"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFE1A16C"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFE1A16C"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFE1A16C"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFE1A16C"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFE1A16C"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFE1A16C"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFE1A16C"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFE1A16C"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFE1A16C"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFE1A16C"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFE1A16C"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFE1A16C"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFE1A16C"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFE1A16C"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFE1A16C"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFE1A16C"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFE1A16C"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFE1A16C"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FFE1A16C"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFE1A16C"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFE1A16C"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFE1A16C"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FFE1A16C"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFE1A16C"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color rgb="FFE1A16C"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFE1A16C"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" shrinkToFit="1"/>
@@ -523,56 +366,17 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="164" fontId="6" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -583,8 +387,8 @@
   <colors>
     <mruColors>
       <color rgb="FFE1A16C"/>
+      <color rgb="FFD9D9D9"/>
       <color rgb="FFFEF1E6"/>
-      <color rgb="FFD9D9D9"/>
       <color rgb="FFFDC689"/>
     </mruColors>
   </colors>
@@ -908,38 +712,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
       <c r="G1" s="27"/>
     </row>
     <row r="2" spans="1:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="30"/>
-    </row>
-    <row r="3" spans="1:7" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="38" t="str">
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="27"/>
+    </row>
+    <row r="3" spans="1:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="26" t="str">
         <f ca="1">"For the Month Ended June 30, "&amp;YEAR(TODAY())</f>
         <v>For the Month Ended June 30, 2019</v>
       </c>
-      <c r="B3" s="39"/>
-      <c r="C3" s="39"/>
-      <c r="D3" s="39"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="39"/>
-      <c r="G3" s="40"/>
+      <c r="B3" s="26"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
     </row>
     <row r="4" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="8"/>
@@ -1076,7 +880,7 @@
       <c r="F14" s="11"/>
       <c r="G14" s="15"/>
     </row>
-    <row r="15" spans="1:7" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="18"/>
       <c r="B15" s="18"/>
       <c r="C15" s="17"/>
@@ -1086,37 +890,37 @@
       <c r="G15" s="17"/>
     </row>
     <row r="16" spans="1:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="25" t="s">
+      <c r="A16" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B16" s="34"/>
-      <c r="C16" s="34"/>
-      <c r="D16" s="34"/>
-      <c r="E16" s="34"/>
-      <c r="F16" s="34"/>
-      <c r="G16" s="35"/>
+      <c r="B16" s="26"/>
+      <c r="C16" s="26"/>
+      <c r="D16" s="26"/>
+      <c r="E16" s="26"/>
+      <c r="F16" s="26"/>
+      <c r="G16" s="26"/>
     </row>
     <row r="17" spans="1:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="28" t="s">
+      <c r="A17" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="B17" s="36"/>
-      <c r="C17" s="36"/>
-      <c r="D17" s="36"/>
-      <c r="E17" s="36"/>
-      <c r="F17" s="36"/>
-      <c r="G17" s="37"/>
-    </row>
-    <row r="18" spans="1:7" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="31" t="s">
+      <c r="B17" s="26"/>
+      <c r="C17" s="26"/>
+      <c r="D17" s="26"/>
+      <c r="E17" s="26"/>
+      <c r="F17" s="26"/>
+      <c r="G17" s="26"/>
+    </row>
+    <row r="18" spans="1:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="B18" s="32"/>
-      <c r="C18" s="32"/>
-      <c r="D18" s="32"/>
-      <c r="E18" s="32"/>
-      <c r="F18" s="32"/>
-      <c r="G18" s="33"/>
+      <c r="B18" s="27"/>
+      <c r="C18" s="27"/>
+      <c r="D18" s="27"/>
+      <c r="E18" s="27"/>
+      <c r="F18" s="27"/>
+      <c r="G18" s="27"/>
     </row>
     <row r="19" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="8"/>
@@ -1205,7 +1009,7 @@
       <c r="F25" s="11"/>
       <c r="G25" s="15"/>
     </row>
-    <row r="26" spans="1:7" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="18"/>
       <c r="B26" s="17"/>
       <c r="C26" s="17"/>
@@ -1215,38 +1019,38 @@
       <c r="G26" s="17"/>
     </row>
     <row r="27" spans="1:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="25" t="s">
+      <c r="A27" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B27" s="26"/>
-      <c r="C27" s="26"/>
-      <c r="D27" s="26"/>
-      <c r="E27" s="26"/>
-      <c r="F27" s="26"/>
+      <c r="B27" s="27"/>
+      <c r="C27" s="27"/>
+      <c r="D27" s="27"/>
+      <c r="E27" s="27"/>
+      <c r="F27" s="27"/>
       <c r="G27" s="27"/>
     </row>
     <row r="28" spans="1:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="28" t="s">
+      <c r="A28" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="B28" s="29"/>
-      <c r="C28" s="29"/>
-      <c r="D28" s="29"/>
-      <c r="E28" s="29"/>
-      <c r="F28" s="29"/>
-      <c r="G28" s="30"/>
-    </row>
-    <row r="29" spans="1:7" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="31" t="str">
+      <c r="B28" s="25"/>
+      <c r="C28" s="25"/>
+      <c r="D28" s="25"/>
+      <c r="E28" s="25"/>
+      <c r="F28" s="25"/>
+      <c r="G28" s="27"/>
+    </row>
+    <row r="29" spans="1:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="26" t="str">
         <f ca="1">"June 30, "&amp;YEAR(TODAY())</f>
         <v>June 30, 2019</v>
       </c>
-      <c r="B29" s="32"/>
-      <c r="C29" s="32"/>
-      <c r="D29" s="32"/>
-      <c r="E29" s="32"/>
-      <c r="F29" s="32"/>
-      <c r="G29" s="33"/>
+      <c r="B29" s="27"/>
+      <c r="C29" s="27"/>
+      <c r="D29" s="27"/>
+      <c r="E29" s="27"/>
+      <c r="F29" s="27"/>
+      <c r="G29" s="27"/>
     </row>
     <row r="30" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="8"/>

--- a/assets/public/Chapter_4_ComprehensiveProblem/documents/resources/Assessment_Questions/5.5_Student_A_Sheet.xlsx
+++ b/assets/public/Chapter_4_ComprehensiveProblem/documents/resources/Assessment_Questions/5.5_Student_A_Sheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10812"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SakshiV\Dropbox\Accounting Courseware\Chapter_4_ComprehensiveProblem\documents\resources\Assessment_Questions\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mallika/Dropbox/Accounting Courseware/Chapter_4_ComprehensiveProblem/documents/resources/Assessment_Questions/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FFF5E9F-CA82-4F5D-83D7-9DF04FE61BB3}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC2BD4BB-7003-BD4D-AD89-7177934064DB}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11640" xr2:uid="{A967B6E2-7F77-4690-A937-D71849A1AE83}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="20320" windowHeight="15400" xr2:uid="{A967B6E2-7F77-4690-A937-D71849A1AE83}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,6 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -124,7 +123,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -177,6 +176,14 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -299,7 +306,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" shrinkToFit="1"/>
@@ -310,16 +317,7 @@
     <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment shrinkToFit="1"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -354,29 +352,47 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -703,50 +719,50 @@
   <dimension ref="A1:G43"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="F42" sqref="F42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="34.140625" customWidth="1"/>
+    <col min="2" max="2" width="34.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="26" t="s">
+    <row r="1" spans="1:7" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-    </row>
-    <row r="2" spans="1:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="26" t="s">
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+    </row>
+    <row r="2" spans="1:7" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="27"/>
-    </row>
-    <row r="3" spans="1:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="26" t="str">
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="20"/>
+    </row>
+    <row r="3" spans="1:7" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="19" t="str">
         <f ca="1">"For the Month Ended June 30, "&amp;YEAR(TODAY())</f>
         <v>For the Month Ended June 30, 2019</v>
       </c>
-      <c r="B3" s="26"/>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="26"/>
-    </row>
-    <row r="4" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="8"/>
+      <c r="B3" s="19"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
+    </row>
+    <row r="4" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="5"/>
       <c r="B4" s="1" t="s">
         <v>5</v>
       </c>
@@ -754,11 +770,11 @@
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
-      <c r="G4" s="19"/>
-    </row>
-    <row r="5" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="8"/>
-      <c r="B5" s="20" t="s">
+      <c r="G4" s="16"/>
+    </row>
+    <row r="5" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="5"/>
+      <c r="B5" s="22" t="s">
         <v>6</v>
       </c>
       <c r="C5" s="3"/>
@@ -767,33 +783,33 @@
       <c r="F5" s="24">
         <v>3750</v>
       </c>
-      <c r="G5" s="14"/>
-    </row>
-    <row r="6" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="8"/>
-      <c r="B6" s="2" t="s">
+      <c r="G5" s="11"/>
+    </row>
+    <row r="6" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="5"/>
+      <c r="B6" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="2"/>
       <c r="E6" s="3"/>
       <c r="F6" s="2"/>
-      <c r="G6" s="14"/>
-    </row>
-    <row r="7" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="8"/>
-      <c r="B7" s="21" t="s">
+      <c r="G6" s="11"/>
+    </row>
+    <row r="7" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="5"/>
+      <c r="B7" s="23" t="s">
         <v>7</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="2"/>
       <c r="E7" s="3"/>
       <c r="F7" s="2"/>
-      <c r="G7" s="14"/>
-    </row>
-    <row r="8" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="8"/>
-      <c r="B8" s="21" t="s">
+      <c r="G7" s="11"/>
+    </row>
+    <row r="8" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="5"/>
+      <c r="B8" s="23" t="s">
         <v>8</v>
       </c>
       <c r="C8" s="3"/>
@@ -802,11 +818,11 @@
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="2"/>
-      <c r="G8" s="14"/>
-    </row>
-    <row r="9" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="8"/>
-      <c r="B9" s="21" t="s">
+      <c r="G8" s="11"/>
+    </row>
+    <row r="9" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="5"/>
+      <c r="B9" s="23" t="s">
         <v>9</v>
       </c>
       <c r="C9" s="3"/>
@@ -815,11 +831,11 @@
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="2"/>
-      <c r="G9" s="14"/>
-    </row>
-    <row r="10" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="8"/>
-      <c r="B10" s="21" t="s">
+      <c r="G9" s="11"/>
+    </row>
+    <row r="10" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="5"/>
+      <c r="B10" s="23" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="3"/>
@@ -828,11 +844,11 @@
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="2"/>
-      <c r="G10" s="14"/>
-    </row>
-    <row r="11" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="8"/>
-      <c r="B11" s="21" t="s">
+      <c r="G10" s="11"/>
+    </row>
+    <row r="11" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="5"/>
+      <c r="B11" s="23" t="s">
         <v>11</v>
       </c>
       <c r="C11" s="3"/>
@@ -841,89 +857,89 @@
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="2"/>
-      <c r="G11" s="14"/>
-    </row>
-    <row r="12" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="8"/>
-      <c r="B12" s="21" t="s">
+      <c r="G11" s="11"/>
+    </row>
+    <row r="12" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="5"/>
+      <c r="B12" s="23" t="s">
         <v>12</v>
       </c>
       <c r="C12" s="3"/>
       <c r="D12" s="2"/>
       <c r="E12" s="3"/>
-      <c r="F12" s="24">
+      <c r="F12" s="30">
         <v>1645</v>
       </c>
-      <c r="G12" s="14"/>
-    </row>
-    <row r="13" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="8"/>
-      <c r="B13" s="21" t="s">
+      <c r="G12" s="11"/>
+    </row>
+    <row r="13" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="5"/>
+      <c r="B13" s="23" t="s">
         <v>13</v>
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="2"/>
       <c r="E13" s="3"/>
-      <c r="F13" s="24">
+      <c r="F13" s="30">
         <v>2105</v>
       </c>
-      <c r="G13" s="14"/>
-    </row>
-    <row r="14" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="9"/>
-      <c r="B14" s="10" t="s">
+      <c r="G13" s="11"/>
+    </row>
+    <row r="14" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="6"/>
+      <c r="B14" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="15"/>
-    </row>
-    <row r="15" spans="1:7" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="18"/>
-      <c r="B15" s="18"/>
-      <c r="C15" s="17"/>
-      <c r="D15" s="18"/>
-      <c r="E15" s="18"/>
-      <c r="F15" s="18"/>
-      <c r="G15" s="17"/>
-    </row>
-    <row r="16" spans="1:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="26" t="s">
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="12"/>
+    </row>
+    <row r="15" spans="1:7" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="15"/>
+      <c r="B15" s="15"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="14"/>
+    </row>
+    <row r="16" spans="1:7" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B16" s="26"/>
-      <c r="C16" s="26"/>
-      <c r="D16" s="26"/>
-      <c r="E16" s="26"/>
-      <c r="F16" s="26"/>
-      <c r="G16" s="26"/>
-    </row>
-    <row r="17" spans="1:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="26" t="s">
+      <c r="B16" s="19"/>
+      <c r="C16" s="19"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="19"/>
+    </row>
+    <row r="17" spans="1:7" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="B17" s="26"/>
-      <c r="C17" s="26"/>
-      <c r="D17" s="26"/>
-      <c r="E17" s="26"/>
-      <c r="F17" s="26"/>
-      <c r="G17" s="26"/>
-    </row>
-    <row r="18" spans="1:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="26" t="s">
+      <c r="B17" s="19"/>
+      <c r="C17" s="19"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="19"/>
+    </row>
+    <row r="18" spans="1:7" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="B18" s="27"/>
-      <c r="C18" s="27"/>
-      <c r="D18" s="27"/>
-      <c r="E18" s="27"/>
-      <c r="F18" s="27"/>
-      <c r="G18" s="27"/>
-    </row>
-    <row r="19" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="8"/>
+      <c r="B18" s="20"/>
+      <c r="C18" s="20"/>
+      <c r="D18" s="20"/>
+      <c r="E18" s="20"/>
+      <c r="F18" s="20"/>
+      <c r="G18" s="20"/>
+    </row>
+    <row r="19" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="5"/>
       <c r="B19" s="1" t="s">
         <v>5</v>
       </c>
@@ -931,11 +947,11 @@
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
-      <c r="G19" s="19"/>
-    </row>
-    <row r="20" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="8"/>
-      <c r="B20" s="20" t="s">
+      <c r="G19" s="16"/>
+    </row>
+    <row r="20" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="5"/>
+      <c r="B20" s="22" t="s">
         <v>14</v>
       </c>
       <c r="C20" s="3"/>
@@ -944,11 +960,11 @@
       <c r="F20" s="24">
         <v>0</v>
       </c>
-      <c r="G20" s="14"/>
-    </row>
-    <row r="21" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="8"/>
-      <c r="B21" s="20" t="s">
+      <c r="G20" s="11"/>
+    </row>
+    <row r="21" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="5"/>
+      <c r="B21" s="22" t="s">
         <v>13</v>
       </c>
       <c r="C21" s="3"/>
@@ -956,104 +972,104 @@
         <v>2105</v>
       </c>
       <c r="E21" s="3"/>
-      <c r="F21" s="22"/>
-      <c r="G21" s="14"/>
-    </row>
-    <row r="22" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="8"/>
-      <c r="B22" s="20" t="s">
+      <c r="F21" s="17"/>
+      <c r="G21" s="11"/>
+    </row>
+    <row r="22" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="5"/>
+      <c r="B22" s="22" t="s">
         <v>15</v>
       </c>
       <c r="C22" s="3"/>
-      <c r="D22" s="24">
+      <c r="D22" s="30">
         <v>700</v>
       </c>
       <c r="E22" s="3"/>
       <c r="F22" s="2"/>
-      <c r="G22" s="14"/>
-    </row>
-    <row r="23" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="8"/>
-      <c r="B23" s="20" t="s">
+      <c r="G22" s="11"/>
+    </row>
+    <row r="23" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="5"/>
+      <c r="B23" s="22" t="s">
         <v>16</v>
       </c>
       <c r="C23" s="3"/>
       <c r="D23" s="2"/>
       <c r="E23" s="3"/>
-      <c r="F23" s="24">
+      <c r="F23" s="30">
         <v>1405</v>
       </c>
-      <c r="G23" s="14"/>
-    </row>
-    <row r="24" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="8"/>
-      <c r="B24" s="20" t="s">
+      <c r="G23" s="11"/>
+    </row>
+    <row r="24" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="5"/>
+      <c r="B24" s="22" t="s">
         <v>17</v>
       </c>
       <c r="C24" s="3"/>
       <c r="D24" s="2"/>
       <c r="E24" s="3"/>
-      <c r="F24" s="24">
+      <c r="F24" s="30">
         <v>1405</v>
       </c>
-      <c r="G24" s="14"/>
-    </row>
-    <row r="25" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="9"/>
-      <c r="B25" s="10" t="s">
+      <c r="G24" s="11"/>
+    </row>
+    <row r="25" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="6"/>
+      <c r="B25" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C25" s="11"/>
-      <c r="D25" s="11"/>
-      <c r="E25" s="11"/>
-      <c r="F25" s="11"/>
-      <c r="G25" s="15"/>
-    </row>
-    <row r="26" spans="1:7" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="18"/>
-      <c r="B26" s="17"/>
-      <c r="C26" s="17"/>
-      <c r="D26" s="17"/>
-      <c r="E26" s="17"/>
-      <c r="F26" s="17"/>
-      <c r="G26" s="17"/>
-    </row>
-    <row r="27" spans="1:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="26" t="s">
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="12"/>
+    </row>
+    <row r="26" spans="1:7" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="15"/>
+      <c r="B26" s="14"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="14"/>
+      <c r="G26" s="14"/>
+    </row>
+    <row r="27" spans="1:7" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B27" s="27"/>
-      <c r="C27" s="27"/>
-      <c r="D27" s="27"/>
-      <c r="E27" s="27"/>
-      <c r="F27" s="27"/>
-      <c r="G27" s="27"/>
-    </row>
-    <row r="28" spans="1:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="26" t="s">
+      <c r="B27" s="20"/>
+      <c r="C27" s="20"/>
+      <c r="D27" s="20"/>
+      <c r="E27" s="20"/>
+      <c r="F27" s="20"/>
+      <c r="G27" s="20"/>
+    </row>
+    <row r="28" spans="1:7" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="B28" s="25"/>
-      <c r="C28" s="25"/>
-      <c r="D28" s="25"/>
-      <c r="E28" s="25"/>
-      <c r="F28" s="25"/>
-      <c r="G28" s="27"/>
-    </row>
-    <row r="29" spans="1:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="26" t="str">
+      <c r="B28" s="21"/>
+      <c r="C28" s="21"/>
+      <c r="D28" s="21"/>
+      <c r="E28" s="21"/>
+      <c r="F28" s="21"/>
+      <c r="G28" s="20"/>
+    </row>
+    <row r="29" spans="1:7" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="19" t="str">
         <f ca="1">"June 30, "&amp;YEAR(TODAY())</f>
         <v>June 30, 2019</v>
       </c>
-      <c r="B29" s="27"/>
-      <c r="C29" s="27"/>
-      <c r="D29" s="27"/>
-      <c r="E29" s="27"/>
-      <c r="F29" s="27"/>
-      <c r="G29" s="27"/>
-    </row>
-    <row r="30" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="8"/>
+      <c r="B29" s="20"/>
+      <c r="C29" s="20"/>
+      <c r="D29" s="20"/>
+      <c r="E29" s="20"/>
+      <c r="F29" s="20"/>
+      <c r="G29" s="20"/>
+    </row>
+    <row r="30" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="5"/>
       <c r="B30" s="1" t="s">
         <v>5</v>
       </c>
@@ -1061,158 +1077,158 @@
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
-      <c r="G30" s="19"/>
-    </row>
-    <row r="31" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="8"/>
-      <c r="B31" s="23" t="s">
+      <c r="G30" s="16"/>
+    </row>
+    <row r="31" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="5"/>
+      <c r="B31" s="18" t="s">
         <v>18</v>
       </c>
       <c r="C31" s="3"/>
       <c r="D31" s="2"/>
       <c r="E31" s="3"/>
       <c r="F31" s="2"/>
-      <c r="G31" s="14"/>
-    </row>
-    <row r="32" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="8"/>
-      <c r="B32" s="20" t="s">
+      <c r="G31" s="11"/>
+    </row>
+    <row r="32" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="5"/>
+      <c r="B32" s="22" t="s">
         <v>19</v>
       </c>
       <c r="C32" s="3"/>
       <c r="D32" s="24">
         <v>8635</v>
       </c>
-      <c r="E32" s="3"/>
-      <c r="F32" s="2"/>
-      <c r="G32" s="14"/>
-    </row>
-    <row r="33" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="8"/>
-      <c r="B33" s="20" t="s">
+      <c r="E32" s="25"/>
+      <c r="F32" s="26"/>
+      <c r="G32" s="11"/>
+    </row>
+    <row r="33" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="5"/>
+      <c r="B33" s="22" t="s">
         <v>20</v>
       </c>
       <c r="C33" s="3"/>
       <c r="D33" s="24">
         <v>2800</v>
       </c>
-      <c r="E33" s="3"/>
-      <c r="F33" s="4"/>
-      <c r="G33" s="14"/>
-    </row>
-    <row r="34" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="8"/>
-      <c r="B34" s="20" t="s">
+      <c r="E33" s="25"/>
+      <c r="F33" s="27"/>
+      <c r="G33" s="11"/>
+    </row>
+    <row r="34" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="5"/>
+      <c r="B34" s="22" t="s">
         <v>21</v>
       </c>
       <c r="C34" s="3"/>
-      <c r="D34" s="4"/>
-      <c r="E34" s="3"/>
-      <c r="F34" s="24">
+      <c r="D34" s="27"/>
+      <c r="E34" s="25"/>
+      <c r="F34" s="30">
         <v>11435</v>
       </c>
-      <c r="G34" s="14"/>
-    </row>
-    <row r="35" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="8"/>
-      <c r="B35" s="5"/>
+      <c r="G34" s="11"/>
+    </row>
+    <row r="35" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="5"/>
+      <c r="B35" s="4"/>
       <c r="C35" s="3"/>
-      <c r="D35" s="2"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="6"/>
-      <c r="G35" s="14"/>
-    </row>
-    <row r="36" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="8"/>
-      <c r="B36" s="23" t="s">
+      <c r="D35" s="26"/>
+      <c r="E35" s="25"/>
+      <c r="F35" s="28"/>
+      <c r="G35" s="11"/>
+    </row>
+    <row r="36" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="5"/>
+      <c r="B36" s="18" t="s">
         <v>22</v>
       </c>
       <c r="C36" s="3"/>
-      <c r="D36" s="2"/>
-      <c r="E36" s="3"/>
-      <c r="F36" s="2"/>
-      <c r="G36" s="14"/>
-    </row>
-    <row r="37" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="8"/>
-      <c r="B37" s="20" t="s">
+      <c r="D36" s="26"/>
+      <c r="E36" s="25"/>
+      <c r="F36" s="26"/>
+      <c r="G36" s="11"/>
+    </row>
+    <row r="37" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="5"/>
+      <c r="B37" s="22" t="s">
         <v>23</v>
       </c>
       <c r="C37" s="3"/>
       <c r="D37" s="24">
         <v>30</v>
       </c>
-      <c r="E37" s="3"/>
-      <c r="F37" s="7"/>
-      <c r="G37" s="14"/>
-    </row>
-    <row r="38" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="8"/>
-      <c r="B38" s="5"/>
+      <c r="E37" s="25"/>
+      <c r="F37" s="29"/>
+      <c r="G37" s="11"/>
+    </row>
+    <row r="38" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="5"/>
+      <c r="B38" s="4"/>
       <c r="C38" s="3"/>
-      <c r="D38" s="2"/>
-      <c r="E38" s="3"/>
-      <c r="F38" s="6"/>
-      <c r="G38" s="14"/>
-    </row>
-    <row r="39" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="8"/>
-      <c r="B39" s="23" t="s">
+      <c r="D38" s="26"/>
+      <c r="E38" s="25"/>
+      <c r="F38" s="28"/>
+      <c r="G38" s="11"/>
+    </row>
+    <row r="39" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="5"/>
+      <c r="B39" s="18" t="s">
         <v>24</v>
       </c>
       <c r="C39" s="3"/>
-      <c r="D39" s="2"/>
-      <c r="E39" s="3"/>
-      <c r="F39" s="6"/>
-      <c r="G39" s="14"/>
-    </row>
-    <row r="40" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="8"/>
-      <c r="B40" s="21" t="s">
+      <c r="D39" s="26"/>
+      <c r="E39" s="25"/>
+      <c r="F39" s="28"/>
+      <c r="G39" s="11"/>
+    </row>
+    <row r="40" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="5"/>
+      <c r="B40" s="23" t="s">
         <v>25</v>
       </c>
       <c r="C40" s="3"/>
       <c r="D40" s="24">
         <v>10000</v>
       </c>
-      <c r="E40" s="3"/>
-      <c r="F40" s="2"/>
-      <c r="G40" s="14"/>
-    </row>
-    <row r="41" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="8"/>
-      <c r="B41" s="20" t="s">
+      <c r="E40" s="25"/>
+      <c r="F40" s="26"/>
+      <c r="G40" s="11"/>
+    </row>
+    <row r="41" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="5"/>
+      <c r="B41" s="22" t="s">
         <v>26</v>
       </c>
       <c r="C41" s="3"/>
-      <c r="D41" s="24">
+      <c r="D41" s="30">
         <v>1405</v>
       </c>
-      <c r="E41" s="3"/>
-      <c r="F41" s="6"/>
-      <c r="G41" s="14"/>
-    </row>
-    <row r="42" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="8"/>
-      <c r="B42" s="20" t="s">
+      <c r="E41" s="25"/>
+      <c r="F41" s="28"/>
+      <c r="G41" s="11"/>
+    </row>
+    <row r="42" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="5"/>
+      <c r="B42" s="22" t="s">
         <v>27</v>
       </c>
       <c r="C42" s="3"/>
-      <c r="D42" s="2"/>
-      <c r="E42" s="3"/>
-      <c r="F42" s="24">
+      <c r="D42" s="26"/>
+      <c r="E42" s="25"/>
+      <c r="F42" s="30">
         <v>11435</v>
       </c>
-      <c r="G42" s="14"/>
-    </row>
-    <row r="43" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="12"/>
-      <c r="B43" s="13"/>
-      <c r="C43" s="13"/>
-      <c r="D43" s="13"/>
-      <c r="E43" s="13"/>
-      <c r="F43" s="13"/>
-      <c r="G43" s="16"/>
+      <c r="G42" s="11"/>
+    </row>
+    <row r="43" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="9"/>
+      <c r="B43" s="10"/>
+      <c r="C43" s="10"/>
+      <c r="D43" s="10"/>
+      <c r="E43" s="10"/>
+      <c r="F43" s="10"/>
+      <c r="G43" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="9">
